--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H2">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.590697666666666</v>
+        <v>9.820575333333334</v>
       </c>
       <c r="N2">
-        <v>19.772093</v>
+        <v>29.461726</v>
       </c>
       <c r="O2">
-        <v>0.8431668433490623</v>
+        <v>0.887999795765984</v>
       </c>
       <c r="P2">
-        <v>0.8431668433490624</v>
+        <v>0.8879997957659842</v>
       </c>
       <c r="Q2">
-        <v>6.046088546376999</v>
+        <v>12.26944054550356</v>
       </c>
       <c r="R2">
-        <v>54.41479691739299</v>
+        <v>110.424964909532</v>
       </c>
       <c r="S2">
-        <v>0.3326994206561852</v>
+        <v>0.3851955984802053</v>
       </c>
       <c r="T2">
-        <v>0.3326994206561852</v>
+        <v>0.3851955984802054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H3">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.81525</v>
       </c>
       <c r="O3">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="P3">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="Q3">
-        <v>0.24929448225</v>
+        <v>0.3395137611666667</v>
       </c>
       <c r="R3">
-        <v>2.24365034025</v>
+        <v>3.0556238505</v>
       </c>
       <c r="S3">
-        <v>0.01371798133308168</v>
+        <v>0.01065893802898674</v>
       </c>
       <c r="T3">
-        <v>0.01371798133308168</v>
+        <v>0.01065893802898674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H4">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3414906666666667</v>
+        <v>0.2612343333333333</v>
       </c>
       <c r="N4">
-        <v>1.024472</v>
+        <v>0.783703</v>
       </c>
       <c r="O4">
-        <v>0.04368787979803153</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="P4">
-        <v>0.04368787979803154</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="Q4">
-        <v>0.313272268408</v>
+        <v>0.3263759008495556</v>
       </c>
       <c r="R4">
-        <v>2.819450415672</v>
+        <v>2.937383107646</v>
       </c>
       <c r="S4">
-        <v>0.01723850079394646</v>
+        <v>0.01024647863861514</v>
       </c>
       <c r="T4">
-        <v>0.01723850079394647</v>
+        <v>0.01024647863861514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H5">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.254942</v>
+        <v>0.418409</v>
       </c>
       <c r="N5">
-        <v>0.764826</v>
+        <v>1.255227</v>
       </c>
       <c r="O5">
-        <v>0.03261546079776632</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="P5">
-        <v>0.03261546079776633</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="Q5">
-        <v>0.233875377714</v>
+        <v>0.5227437471793335</v>
       </c>
       <c r="R5">
-        <v>2.104878399426</v>
+        <v>4.704693724614001</v>
       </c>
       <c r="S5">
-        <v>0.01286951093659065</v>
+        <v>0.0164113913588604</v>
       </c>
       <c r="T5">
-        <v>0.01286951093659065</v>
+        <v>0.0164113913588604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H6">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I6">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J6">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3577193333333333</v>
+        <v>0.2872403333333333</v>
       </c>
       <c r="N6">
-        <v>1.073158</v>
+        <v>0.861721</v>
       </c>
       <c r="O6">
-        <v>0.04576405964076706</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="P6">
-        <v>0.04576405964076707</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="Q6">
-        <v>0.3281599116619999</v>
+        <v>0.3588667743468889</v>
       </c>
       <c r="R6">
-        <v>2.953439204957999</v>
+        <v>3.229800969122</v>
       </c>
       <c r="S6">
-        <v>0.01805772635565442</v>
+        <v>0.01126652037691074</v>
       </c>
       <c r="T6">
-        <v>0.01805772635565443</v>
+        <v>0.01126652037691074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.590697666666666</v>
+        <v>9.820575333333334</v>
       </c>
       <c r="N7">
-        <v>19.772093</v>
+        <v>29.461726</v>
       </c>
       <c r="O7">
-        <v>0.8431668433490623</v>
+        <v>0.887999795765984</v>
       </c>
       <c r="P7">
-        <v>0.8431668433490624</v>
+        <v>0.8879997957659842</v>
       </c>
       <c r="Q7">
-        <v>5.431018277332999</v>
+        <v>8.092576359406001</v>
       </c>
       <c r="R7">
-        <v>48.87916449599699</v>
+        <v>72.83318723465401</v>
       </c>
       <c r="S7">
-        <v>0.2988538160799166</v>
+        <v>0.2540641345827737</v>
       </c>
       <c r="T7">
-        <v>0.2988538160799166</v>
+        <v>0.2540641345827737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.81525</v>
       </c>
       <c r="O8">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="P8">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="Q8">
         <v>0.22393368525</v>
@@ -948,10 +948,10 @@
         <v>2.01540316725</v>
       </c>
       <c r="S8">
-        <v>0.01232244727754173</v>
+        <v>0.007030334397876289</v>
       </c>
       <c r="T8">
-        <v>0.01232244727754174</v>
+        <v>0.00703033439787629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3414906666666667</v>
+        <v>0.2612343333333333</v>
       </c>
       <c r="N9">
-        <v>1.024472</v>
+        <v>0.783703</v>
       </c>
       <c r="O9">
-        <v>0.04368787979803153</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="P9">
-        <v>0.04368787979803154</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="Q9">
-        <v>0.281402993432</v>
+        <v>0.215268323743</v>
       </c>
       <c r="R9">
-        <v>2.532626940888</v>
+        <v>1.937414913687</v>
       </c>
       <c r="S9">
-        <v>0.0154848233147105</v>
+        <v>0.006758287836392323</v>
       </c>
       <c r="T9">
-        <v>0.0154848233147105</v>
+        <v>0.006758287836392323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J10">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.254942</v>
+        <v>0.418409</v>
       </c>
       <c r="N10">
-        <v>0.764826</v>
+        <v>1.255227</v>
       </c>
       <c r="O10">
-        <v>0.03261546079776632</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="P10">
-        <v>0.03261546079776633</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="Q10">
-        <v>0.210083170506</v>
+        <v>0.344787007587</v>
       </c>
       <c r="R10">
-        <v>1.890748534554</v>
+        <v>3.103083068283</v>
       </c>
       <c r="S10">
-        <v>0.01156029201041783</v>
+        <v>0.0108244901014941</v>
       </c>
       <c r="T10">
-        <v>0.01156029201041783</v>
+        <v>0.0108244901014941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J11">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3577193333333333</v>
+        <v>0.2872403333333333</v>
       </c>
       <c r="N11">
-        <v>1.073158</v>
+        <v>0.861721</v>
       </c>
       <c r="O11">
-        <v>0.04576405964076706</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="P11">
-        <v>0.04576405964076707</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="Q11">
-        <v>0.294776112598</v>
+        <v>0.236698386001</v>
       </c>
       <c r="R11">
-        <v>2.652985013381999</v>
+        <v>2.130285474009</v>
       </c>
       <c r="S11">
-        <v>0.01622070883222586</v>
+        <v>0.007431078549736098</v>
       </c>
       <c r="T11">
-        <v>0.01622070883222586</v>
+        <v>0.007431078549736098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H12">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I12">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J12">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.590697666666666</v>
+        <v>9.820575333333334</v>
       </c>
       <c r="N12">
-        <v>19.772093</v>
+        <v>29.461726</v>
       </c>
       <c r="O12">
-        <v>0.8431668433490623</v>
+        <v>0.887999795765984</v>
       </c>
       <c r="P12">
-        <v>0.8431668433490624</v>
+        <v>0.8879997957659842</v>
       </c>
       <c r="Q12">
-        <v>1.134331566107667</v>
+        <v>0.3971244253293334</v>
       </c>
       <c r="R12">
-        <v>10.208984094969</v>
+        <v>3.574119827964001</v>
       </c>
       <c r="S12">
-        <v>0.06241910815252422</v>
+        <v>0.01246760845521193</v>
       </c>
       <c r="T12">
-        <v>0.06241910815252422</v>
+        <v>0.01246760845521193</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H13">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I13">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J13">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.81525</v>
       </c>
       <c r="O13">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="P13">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="Q13">
-        <v>0.04677116425</v>
+        <v>0.0109890265</v>
       </c>
       <c r="R13">
-        <v>0.42094047825</v>
+        <v>0.0989012385</v>
       </c>
       <c r="S13">
-        <v>0.002573686959764218</v>
+        <v>0.0003449973634644325</v>
       </c>
       <c r="T13">
-        <v>0.002573686959764218</v>
+        <v>0.0003449973634644326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H14">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I14">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J14">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3414906666666667</v>
+        <v>0.2612343333333333</v>
       </c>
       <c r="N14">
-        <v>1.024472</v>
+        <v>0.783703</v>
       </c>
       <c r="O14">
-        <v>0.04368787979803153</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="P14">
-        <v>0.04368787979803154</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="Q14">
-        <v>0.05877430013066666</v>
+        <v>0.01056379397133334</v>
       </c>
       <c r="R14">
-        <v>0.5289687011759999</v>
+        <v>0.095074145742</v>
       </c>
       <c r="S14">
-        <v>0.003234186111062334</v>
+        <v>0.0003316473090943468</v>
       </c>
       <c r="T14">
-        <v>0.003234186111062334</v>
+        <v>0.0003316473090943468</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H15">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I15">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J15">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.254942</v>
+        <v>0.418409</v>
       </c>
       <c r="N15">
-        <v>0.764826</v>
+        <v>1.255227</v>
       </c>
       <c r="O15">
-        <v>0.03261546079776632</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="P15">
-        <v>0.03261546079776633</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="Q15">
-        <v>0.043878322562</v>
+        <v>0.016919623142</v>
       </c>
       <c r="R15">
-        <v>0.394904903058</v>
+        <v>0.152276608278</v>
       </c>
       <c r="S15">
-        <v>0.002414501935220641</v>
+        <v>0.0005311867593368528</v>
       </c>
       <c r="T15">
-        <v>0.002414501935220641</v>
+        <v>0.000531186759336853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H16">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I16">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J16">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3577193333333333</v>
+        <v>0.2872403333333333</v>
       </c>
       <c r="N16">
-        <v>1.073158</v>
+        <v>0.861721</v>
       </c>
       <c r="O16">
-        <v>0.04576405964076706</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="P16">
-        <v>0.04576405964076707</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="Q16">
-        <v>0.06156743217933332</v>
+        <v>0.01161542459933333</v>
       </c>
       <c r="R16">
-        <v>0.5541068896139998</v>
+        <v>0.104538821394</v>
       </c>
       <c r="S16">
-        <v>0.003387884391740752</v>
+        <v>0.0003646629537466228</v>
       </c>
       <c r="T16">
-        <v>0.003387884391740752</v>
+        <v>0.0003646629537466229</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H17">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.590697666666666</v>
+        <v>9.820575333333334</v>
       </c>
       <c r="N17">
-        <v>19.772093</v>
+        <v>29.461726</v>
       </c>
       <c r="O17">
-        <v>0.8431668433490623</v>
+        <v>0.887999795765984</v>
       </c>
       <c r="P17">
-        <v>0.8431668433490624</v>
+        <v>0.8879997957659842</v>
       </c>
       <c r="Q17">
-        <v>2.204810256321444</v>
+        <v>5.289221112953557</v>
       </c>
       <c r="R17">
-        <v>19.843292306893</v>
+        <v>47.60299001658201</v>
       </c>
       <c r="S17">
-        <v>0.1213245703082729</v>
+        <v>0.1660535934415472</v>
       </c>
       <c r="T17">
-        <v>0.1213245703082729</v>
+        <v>0.1660535934415472</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H18">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I18">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J18">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.81525</v>
       </c>
       <c r="O18">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="P18">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="Q18">
-        <v>0.09090952391666667</v>
+        <v>0.1463606549166667</v>
       </c>
       <c r="R18">
-        <v>0.8181857152500001</v>
+        <v>1.31724589425</v>
       </c>
       <c r="S18">
-        <v>0.00500249801292253</v>
+        <v>0.004594951159793603</v>
       </c>
       <c r="T18">
-        <v>0.005002498012922531</v>
+        <v>0.004594951159793604</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H19">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I19">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J19">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3414906666666667</v>
+        <v>0.2612343333333333</v>
       </c>
       <c r="N19">
-        <v>1.024472</v>
+        <v>0.783703</v>
       </c>
       <c r="O19">
-        <v>0.04368787979803153</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="P19">
-        <v>0.04368787979803154</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="Q19">
-        <v>0.1142401248524444</v>
+        <v>0.1406970675745556</v>
       </c>
       <c r="R19">
-        <v>1.028161123672</v>
+        <v>1.266273608171</v>
       </c>
       <c r="S19">
-        <v>0.00628631603102701</v>
+        <v>0.004417144444996904</v>
       </c>
       <c r="T19">
-        <v>0.006286316031027012</v>
+        <v>0.004417144444996905</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H20">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I20">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J20">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.254942</v>
+        <v>0.418409</v>
       </c>
       <c r="N20">
-        <v>0.764826</v>
+        <v>1.255227</v>
       </c>
       <c r="O20">
-        <v>0.03261546079776632</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="P20">
-        <v>0.03261546079776633</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="Q20">
-        <v>0.08528668204733333</v>
+        <v>0.2253490902043334</v>
       </c>
       <c r="R20">
-        <v>0.7675801384259999</v>
+        <v>2.028141811839</v>
       </c>
       <c r="S20">
-        <v>0.00469308867860348</v>
+        <v>0.007074770634105177</v>
       </c>
       <c r="T20">
-        <v>0.00469308867860348</v>
+        <v>0.007074770634105178</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H21">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I21">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J21">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3577193333333333</v>
+        <v>0.2872403333333333</v>
       </c>
       <c r="N21">
-        <v>1.073158</v>
+        <v>0.861721</v>
       </c>
       <c r="O21">
-        <v>0.04576405964076706</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="P21">
-        <v>0.04576405964076707</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="Q21">
-        <v>0.1196691602175555</v>
+        <v>0.1547035264218889</v>
       </c>
       <c r="R21">
-        <v>1.077022441958</v>
+        <v>1.392331737797</v>
       </c>
       <c r="S21">
-        <v>0.006585060732967697</v>
+        <v>0.004856873239335791</v>
       </c>
       <c r="T21">
-        <v>0.0065850607329677</v>
+        <v>0.004856873239335791</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H22">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I22">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J22">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.590697666666666</v>
+        <v>9.820575333333334</v>
       </c>
       <c r="N22">
-        <v>19.772093</v>
+        <v>29.461726</v>
       </c>
       <c r="O22">
-        <v>0.8431668433490623</v>
+        <v>0.887999795765984</v>
       </c>
       <c r="P22">
-        <v>0.8431668433490624</v>
+        <v>0.8879997957659842</v>
       </c>
       <c r="Q22">
-        <v>0.5064753435903333</v>
+        <v>2.236645852742</v>
       </c>
       <c r="R22">
-        <v>4.558278092313</v>
+        <v>20.129812674678</v>
       </c>
       <c r="S22">
-        <v>0.0278699281521636</v>
+        <v>0.0702188608062459</v>
       </c>
       <c r="T22">
-        <v>0.0278699281521636</v>
+        <v>0.07021886080624591</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H23">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I23">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J23">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.81525</v>
       </c>
       <c r="O23">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="P23">
-        <v>0.03476575641437268</v>
+        <v>0.02457228179700736</v>
       </c>
       <c r="Q23">
-        <v>0.02088317225</v>
+        <v>0.06189133425</v>
       </c>
       <c r="R23">
-        <v>0.18794855025</v>
+        <v>0.55702200825</v>
       </c>
       <c r="S23">
-        <v>0.001149142831062517</v>
+        <v>0.001943060846886294</v>
       </c>
       <c r="T23">
-        <v>0.001149142831062517</v>
+        <v>0.001943060846886295</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H24">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I24">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J24">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3414906666666667</v>
+        <v>0.2612343333333333</v>
       </c>
       <c r="N24">
-        <v>1.024472</v>
+        <v>0.783703</v>
       </c>
       <c r="O24">
-        <v>0.04368787979803153</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="P24">
-        <v>0.04368787979803154</v>
+        <v>0.02362143018848213</v>
       </c>
       <c r="Q24">
-        <v>0.02624253326133333</v>
+        <v>0.05949638065100001</v>
       </c>
       <c r="R24">
-        <v>0.236182799352</v>
+        <v>0.535467425859</v>
       </c>
       <c r="S24">
-        <v>0.001444053547285224</v>
+        <v>0.001867871959383416</v>
       </c>
       <c r="T24">
-        <v>0.001444053547285224</v>
+        <v>0.001867871959383416</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H25">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I25">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J25">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.254942</v>
+        <v>0.418409</v>
       </c>
       <c r="N25">
-        <v>0.764826</v>
+        <v>1.255227</v>
       </c>
       <c r="O25">
-        <v>0.03261546079776632</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="P25">
-        <v>0.03261546079776633</v>
+        <v>0.03783353764270121</v>
       </c>
       <c r="Q25">
-        <v>0.019591527874</v>
+        <v>0.09529306815900002</v>
       </c>
       <c r="R25">
-        <v>0.176323750866</v>
+        <v>0.8576376134310001</v>
       </c>
       <c r="S25">
-        <v>0.001078067236933727</v>
+        <v>0.002991698788904683</v>
       </c>
       <c r="T25">
-        <v>0.001078067236933727</v>
+        <v>0.002991698788904683</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H26">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I26">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J26">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3577193333333333</v>
+        <v>0.2872403333333333</v>
       </c>
       <c r="N26">
-        <v>1.073158</v>
+        <v>0.861721</v>
       </c>
       <c r="O26">
-        <v>0.04576405964076706</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="P26">
-        <v>0.04576405964076707</v>
+        <v>0.02597295460582518</v>
       </c>
       <c r="Q26">
-        <v>0.02748965760866666</v>
+        <v>0.065419273157</v>
       </c>
       <c r="R26">
-        <v>0.2474069184779999</v>
+        <v>0.588773458413</v>
       </c>
       <c r="S26">
-        <v>0.001512679328178336</v>
+        <v>0.002053819486095927</v>
       </c>
       <c r="T26">
-        <v>0.001512679328178336</v>
+        <v>0.002053819486095927</v>
       </c>
     </row>
   </sheetData>
